--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Btc-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Btc-Egfr.xlsx
@@ -546,10 +546,10 @@
         <v>1.389545</v>
       </c>
       <c r="I2">
-        <v>0.0739295519144354</v>
+        <v>0.3800727954645477</v>
       </c>
       <c r="J2">
-        <v>0.1069412678644624</v>
+        <v>0.47906870267432</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N2">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O2">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P2">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q2">
-        <v>0.5609395540822223</v>
+        <v>0.3056135938161111</v>
       </c>
       <c r="R2">
-        <v>5.048455986740001</v>
+        <v>2.750522344345</v>
       </c>
       <c r="S2">
-        <v>0.001090175940699781</v>
+        <v>0.002928360305101355</v>
       </c>
       <c r="T2">
-        <v>0.00170925784890659</v>
+        <v>0.004064743931158092</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>1.389545</v>
       </c>
       <c r="I3">
-        <v>0.0739295519144354</v>
+        <v>0.3800727954645477</v>
       </c>
       <c r="J3">
-        <v>0.1069412678644624</v>
+        <v>0.47906870267432</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>183.180478</v>
       </c>
       <c r="O3">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P3">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q3">
         <v>28.28194636694555</v>
@@ -638,10 +638,10 @@
         <v>254.53751730251</v>
       </c>
       <c r="S3">
-        <v>0.05496545440774218</v>
+        <v>0.2709949124246149</v>
       </c>
       <c r="T3">
-        <v>0.08617887338886264</v>
+        <v>0.3761575799718901</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,40 +670,40 @@
         <v>1.389545</v>
       </c>
       <c r="I4">
-        <v>0.0739295519144354</v>
+        <v>0.3800727954645477</v>
       </c>
       <c r="J4">
-        <v>0.1069412678644624</v>
+        <v>0.47906870267432</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N4">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O4">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P4">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q4">
-        <v>0.06126874450333333</v>
+        <v>0.07241783600777778</v>
       </c>
       <c r="R4">
-        <v>0.5514187005300001</v>
+        <v>0.65176052407</v>
       </c>
       <c r="S4">
-        <v>0.0001190747036616094</v>
+        <v>0.0006939007970768366</v>
       </c>
       <c r="T4">
-        <v>0.0001866940594095181</v>
+        <v>0.0009631769180965627</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>1.389545</v>
       </c>
       <c r="I5">
-        <v>0.0739295519144354</v>
+        <v>0.3800727954645477</v>
       </c>
       <c r="J5">
-        <v>0.1069412678644624</v>
+        <v>0.47906870267432</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N5">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O5">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P5">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q5">
-        <v>8.832145335389999</v>
+        <v>10.93865085835917</v>
       </c>
       <c r="R5">
-        <v>52.99287201234</v>
+        <v>65.63190515015499</v>
       </c>
       <c r="S5">
-        <v>0.01716511570513107</v>
+        <v>0.1048131091454519</v>
       </c>
       <c r="T5">
-        <v>0.01794181877807849</v>
+        <v>0.09699135464139097</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,40 +794,40 @@
         <v>1.389545</v>
       </c>
       <c r="I6">
-        <v>0.0739295519144354</v>
+        <v>0.3800727954645477</v>
       </c>
       <c r="J6">
-        <v>0.1069412678644624</v>
+        <v>0.47906870267432</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N6">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O6">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P6">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q6">
-        <v>0.30344049983</v>
+        <v>0.06705480988333333</v>
       </c>
       <c r="R6">
-        <v>2.73096449847</v>
+        <v>0.6034932889500001</v>
       </c>
       <c r="S6">
-        <v>0.0005897311572007505</v>
+        <v>0.0006425127923027611</v>
       </c>
       <c r="T6">
-        <v>0.0009246237892051763</v>
+        <v>0.0008918472117841707</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>5.8019945</v>
+        <v>0.755484</v>
       </c>
       <c r="H7">
-        <v>11.603989</v>
+        <v>1.510968</v>
       </c>
       <c r="I7">
-        <v>0.9260704480855646</v>
+        <v>0.6199272045354524</v>
       </c>
       <c r="J7">
-        <v>0.8930587321355375</v>
+        <v>0.52093129732568</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N7">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O7">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P7">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q7">
-        <v>7.026547987184667</v>
+        <v>0.498478668148</v>
       </c>
       <c r="R7">
-        <v>42.159287923108</v>
+        <v>2.990872008888</v>
       </c>
       <c r="S7">
-        <v>0.01365596971376772</v>
+        <v>0.004776375050982572</v>
       </c>
       <c r="T7">
-        <v>0.0142738876948035</v>
+        <v>0.004419934588785594</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.5</v>
       </c>
       <c r="G8">
-        <v>5.8019945</v>
+        <v>0.755484</v>
       </c>
       <c r="H8">
-        <v>11.603989</v>
+        <v>1.510968</v>
       </c>
       <c r="I8">
-        <v>0.9260704480855646</v>
+        <v>0.6199272045354524</v>
       </c>
       <c r="J8">
-        <v>0.8930587321355375</v>
+        <v>0.52093129732568</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>183.180478</v>
       </c>
       <c r="O8">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P8">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q8">
-        <v>354.2707086211237</v>
+        <v>46.129973413784</v>
       </c>
       <c r="R8">
-        <v>2125.624251726742</v>
+        <v>276.779840482704</v>
       </c>
       <c r="S8">
-        <v>0.6885187543340897</v>
+        <v>0.4420130051596698</v>
       </c>
       <c r="T8">
-        <v>0.7196734894060681</v>
+        <v>0.40902746315878</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>0.5</v>
       </c>
       <c r="G9">
-        <v>5.8019945</v>
+        <v>0.755484</v>
       </c>
       <c r="H9">
-        <v>11.603989</v>
+        <v>1.510968</v>
       </c>
       <c r="I9">
-        <v>0.9260704480855646</v>
+        <v>0.6199272045354524</v>
       </c>
       <c r="J9">
-        <v>0.8930587321355375</v>
+        <v>0.52093129732568</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N9">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O9">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P9">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q9">
-        <v>0.7674762284710001</v>
+        <v>0.118118916088</v>
       </c>
       <c r="R9">
-        <v>4.604857370826</v>
+        <v>0.708713496528</v>
       </c>
       <c r="S9">
-        <v>0.001491576254962137</v>
+        <v>0.001131804187224156</v>
       </c>
       <c r="T9">
-        <v>0.00155906848051225</v>
+        <v>0.001047342476553496</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.5</v>
       </c>
       <c r="G10">
-        <v>5.8019945</v>
+        <v>0.755484</v>
       </c>
       <c r="H10">
-        <v>11.603989</v>
+        <v>1.510968</v>
       </c>
       <c r="I10">
-        <v>0.9260704480855646</v>
+        <v>0.6199272045354524</v>
       </c>
       <c r="J10">
-        <v>0.8930587321355375</v>
+        <v>0.52093129732568</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N10">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O10">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P10">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q10">
-        <v>110.634902775657</v>
+        <v>17.841759075978</v>
       </c>
       <c r="R10">
-        <v>442.539611102628</v>
+        <v>71.367036303912</v>
       </c>
       <c r="S10">
-        <v>0.2150169449273699</v>
+        <v>0.1709580336361383</v>
       </c>
       <c r="T10">
-        <v>0.149830820693692</v>
+        <v>0.1054667773550286</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>0.5</v>
       </c>
       <c r="G11">
-        <v>5.8019945</v>
+        <v>0.755484</v>
       </c>
       <c r="H11">
-        <v>11.603989</v>
+        <v>1.510968</v>
       </c>
       <c r="I11">
-        <v>0.9260704480855646</v>
+        <v>0.6199272045354524</v>
       </c>
       <c r="J11">
-        <v>0.8930587321355375</v>
+        <v>0.52093129732568</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N11">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O11">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P11">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q11">
-        <v>3.801014240829</v>
+        <v>0.10937141868</v>
       </c>
       <c r="R11">
-        <v>22.806085444974</v>
+        <v>0.6562285120800001</v>
       </c>
       <c r="S11">
-        <v>0.007387202855375082</v>
+        <v>0.001047986501437649</v>
       </c>
       <c r="T11">
-        <v>0.007721465860461652</v>
+        <v>0.0009697797465322138</v>
       </c>
     </row>
   </sheetData>
